--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationdosagebase.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationdosagebase.xlsx
@@ -145,10 +145,6 @@
     <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
   </si>
   <si>
@@ -255,6 +251,10 @@
   </si>
   <si>
     <t>もし、複数の服用法(Dosage)でsequenceの数値が同じであれば、その指示が同時に扱われることを示している。sequenceの数値が異なれば、服用指示(Dosage)の順番を意図している。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>.text</t>
@@ -1296,10 +1296,10 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="AK1" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>38</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1321,25 +1321,25 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1390,22 +1390,22 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>38</v>
@@ -1413,14 +1413,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -1439,16 +1439,16 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1486,19 +1486,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC3" t="s" s="2">
+      <c r="AD3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AF3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -1510,10 +1510,10 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>38</v>
@@ -1521,14 +1521,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1541,25 +1541,25 @@
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="J4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="O4" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="O4" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="P4" t="s" s="2">
         <v>38</v>
@@ -1608,7 +1608,7 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
@@ -1620,10 +1620,10 @@
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>38</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1645,7 +1645,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1654,22 +1654,22 @@
         <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>38</v>
@@ -1718,19 +1718,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>77</v>
@@ -1755,19 +1755,19 @@
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>80</v>
@@ -1834,13 +1834,13 @@
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>77</v>
@@ -1874,7 +1874,7 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>86</v>
@@ -1948,7 +1948,7 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>77</v>
@@ -1973,19 +1973,19 @@
         <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>95</v>
@@ -2050,13 +2050,13 @@
         <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>77</v>
@@ -2081,7 +2081,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -2160,19 +2160,19 @@
         <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -2191,7 +2191,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -2200,7 +2200,7 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>105</v>
@@ -2268,13 +2268,13 @@
         <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>109</v>
@@ -2299,7 +2299,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -2308,7 +2308,7 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>86</v>
@@ -2376,13 +2376,13 @@
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>117</v>
@@ -2407,7 +2407,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -2416,7 +2416,7 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>86</v>
@@ -2484,13 +2484,13 @@
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>124</v>
@@ -2515,7 +2515,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -2524,7 +2524,7 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>86</v>
@@ -2594,13 +2594,13 @@
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>133</v>
@@ -2625,25 +2625,25 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2694,22 +2694,22 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>38</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2743,16 +2743,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2790,19 +2790,19 @@
         <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC15" t="s" s="2">
+      <c r="AD15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -2814,10 +2814,10 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>38</v>
@@ -2848,7 +2848,7 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>138</v>
@@ -2907,7 +2907,7 @@
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>144</v>
@@ -2922,7 +2922,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>145</v>
@@ -2949,7 +2949,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -2958,7 +2958,7 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>138</v>
@@ -3032,7 +3032,7 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>145</v>
@@ -3057,25 +3057,25 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3126,22 +3126,22 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3175,16 +3175,16 @@
         <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3222,19 +3222,19 @@
         <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC19" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC19" t="s" s="2">
+      <c r="AD19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3246,10 +3246,10 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
@@ -3268,10 +3268,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3280,7 +3280,7 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>160</v>
@@ -3350,13 +3350,13 @@
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>167</v>
@@ -3381,19 +3381,19 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>171</v>
@@ -3458,13 +3458,13 @@
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>175</v>
@@ -3489,7 +3489,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -3498,7 +3498,7 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>179</v>
@@ -3566,13 +3566,13 @@
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>184</v>
@@ -3597,19 +3597,19 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>188</v>
@@ -3674,13 +3674,13 @@
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>192</v>
@@ -3705,7 +3705,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -3714,7 +3714,7 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>105</v>
@@ -3784,13 +3784,13 @@
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>201</v>
@@ -3817,7 +3817,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -3826,7 +3826,7 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>138</v>
@@ -3900,7 +3900,7 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>145</v>
@@ -3925,25 +3925,25 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3994,22 +3994,22 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>38</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4043,16 +4043,16 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4090,19 +4090,19 @@
         <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC27" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC27" t="s" s="2">
+      <c r="AD27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4114,10 +4114,10 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>38</v>
@@ -4136,10 +4136,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4148,7 +4148,7 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>160</v>
@@ -4218,13 +4218,13 @@
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>167</v>
@@ -4249,19 +4249,19 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>171</v>
@@ -4326,13 +4326,13 @@
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>175</v>
@@ -4357,7 +4357,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4366,7 +4366,7 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>179</v>
@@ -4434,13 +4434,13 @@
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>184</v>
@@ -4465,19 +4465,19 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>188</v>
@@ -4542,13 +4542,13 @@
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>192</v>
@@ -4573,7 +4573,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -4582,7 +4582,7 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>105</v>
@@ -4652,13 +4652,13 @@
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>201</v>
@@ -4683,19 +4683,19 @@
         <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>80</v>
@@ -4762,13 +4762,13 @@
         <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>218</v>
@@ -4802,7 +4802,7 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>221</v>
@@ -4874,7 +4874,7 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -4899,25 +4899,25 @@
         <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4968,22 +4968,22 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>38</v>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5017,16 +5017,16 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5064,19 +5064,19 @@
         <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC36" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="AC36" t="s" s="2">
+      <c r="AD36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="AD36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE36" t="s" s="2">
+      <c r="AF36" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5088,10 +5088,10 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>38</v>
@@ -5113,7 +5113,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -5122,7 +5122,7 @@
         <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>86</v>
@@ -5190,13 +5190,13 @@
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
@@ -5221,7 +5221,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -5300,7 +5300,7 @@
         <v>39</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>239</v>
@@ -5331,7 +5331,7 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -5340,7 +5340,7 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>244</v>
@@ -5410,13 +5410,13 @@
         <v>39</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>249</v>
@@ -5441,7 +5441,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -5520,7 +5520,7 @@
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>239</v>
@@ -5532,7 +5532,7 @@
         <v>257</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -5551,7 +5551,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -5630,7 +5630,7 @@
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>239</v>
@@ -5661,7 +5661,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -5740,7 +5740,7 @@
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>239</v>
